--- a/Summer_practice/files/Задачи.xlsx
+++ b/Summer_practice/files/Задачи.xlsx
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -590,11 +590,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Озарян Владислав Дмитриевич</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Ансамблирование нейросетевых моделей машинного обучения для задач компьютерного зрения</t>
@@ -645,11 +640,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Озарян Владислав Дмитриевич</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Экспериментальная оценка точности классификации ИНС в зависимости от её ёмкости</t>
@@ -697,11 +687,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Озарян Владислав Дмитриевич</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Программа для оцифровки сканов с аппарата ЭКГ</t>
@@ -759,7 +744,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -813,7 +798,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -870,7 +855,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -927,7 +912,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -984,7 +969,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/Summer_practice/files/Задачи.xlsx
+++ b/Summer_practice/files/Задачи.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Золотухина П В</t>
+          <t>G G G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -533,79 +533,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Распознавание объектов по аудио сигналу</t>
+          <t>Ансамблирование нейросетевых моделей машинного обучения для задач компьютерного зрения</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>получение навыков машинного обучения в задачах классификации аудиосигналов.</t>
+          <t>Получение знаний и практических навыков необходимых для реализации основных методов ансамблирования нейросетевых моделей.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Для определения объектов в некоторых ограниченных условиях используют классификацию аудиосигналов.</t>
+          <t>Ансамблирование моделей – метод машинного обучения, где несколько моделей обучаются для решения одной и той же проблемы и объединяются для получения лучших результатов называется ансамблевым методом. Основная идея заключается в том, что результат работы нескольких моделей будет более точен, чем результат только одной модели.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>• Ознакомиться с основами ИНС, применяемых в работе со звуком;
-• Научиться работать с аудиосигналом;
-• Найти и подготовить набор данных, содержащий разные классы и их аудиосигналы;
-• Подобрать архитектуру ИНС для задачи классификации звука и научиться её обучать.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>• Английский язык (чтение технической литературы);
-• Python3;
-• Один из фреймворков обработки аудиосигналов.
-• Один из фреймворков DL.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>• Работа с аудиосигналом;
-• Создание и обучение нейронных сетей;
-• Использование GPU для ускорения вычислений;
-• Использование популярных библиотек для работы ИНС.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1) https://habr.com/ru/articles/399659/
-2) https://habr.com/ru/articles/668518/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ансамблирование нейросетевых моделей машинного обучения для задач компьютерного зрения</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Получение знаний и практических навыков необходимых для реализации основных методов ансамблирования нейросетевых моделей.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ансамблирование моделей – метод машинного обучения, где несколько моделей обучаются для решения одной и той же проблемы и объединяются для получения лучших результатов называется ансамблевым методом. Основная идея заключается в том, что результат работы нескольких моделей будет более точен, чем результат только одной модели.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>• Ознакомление с идеей ансамблирования моделей машинного обучения;  
 • Изучение методов ансамблирования: стекинг, бэггинг, бустинг;  
@@ -613,14 +556,14 @@
 • Реализация методов ансамблирования.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>• Английский язык (чтение технической литературы); 
 • Python3; 
 • Один из фреймворков ML/DL.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>• Создание и обучение нейронных сетей; 
 • Работа с метриками нейросетевых моделей; 
@@ -628,76 +571,76 @@
 • Использование GPU для ускорения вычислений.</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Материалы</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Экспериментальная оценка точности классификации ИНС в зависимости от её ёмкости</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>получение зависимости метрик качества ИНС в зависимости от ёмкости сети.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Практика показывает — сети с большей ёмкостью достигают лучшей точности в задачах классификации. В рамках задачи вам предстоит проверить это наблюдение.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>• Проработать метод оценки емкости модели.   
+• Построить график, отражающего зависимость точности модели от ее емкости на примере открытого набора данных cifar100.  
+• Провести анализ полученных результатов</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>• Английский язык (чтение технической литературы);  
+• Python3;  
+• Один из фреймворков DL.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>• Умение подобрать оптимальные параметры для обучения;  
+• Умение обобщать результаты.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Материалы</t>
+          <t>Звёздный нефрит, кристальное ядро, заоблачный персик</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Экспериментальная оценка точности классификации ИНС в зависимости от её ёмкости</t>
+          <t>Программа для оцифровки сканов с аппарата ЭКГ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>получение зависимости метрик качества ИНС в зависимости от ёмкости сети.</t>
+          <t>Разработать приложение для оцифровки сканов аппарата ЭКГ.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Практика показывает — сети с большей ёмкостью достигают лучшей точности в задачах классификации. В рамках задачи вам предстоит проверить это наблюдение.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>• Проработать метод оценки емкости модели.   
-• Построить график, отражающего зависимость точности модели от ее емкости на примере открытого набора данных cifar100.  
-• Провести анализ полученных результатов</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>• Английский язык (чтение технической литературы);  
-• Python3;  
-• Один из фреймворков DL.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>• Умение подобрать оптимальные параметры для обучения;  
-• Умение обобщать результаты.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Звёздный нефрит, кристальное ядро, заоблачный персик</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Программа для оцифровки сканов с аппарата ЭКГ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Разработать приложение для оцифровки сканов аппарата ЭКГ.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>Требования к приложению: 
     • На вход получает скан ленты с аппарата ЭКГ (12 отведений). Также прилагаются характеристики записи ЭКГ (частота дискретизации, скорость записи) 
@@ -707,7 +650,7 @@
 Все необходимые для выполнения работы данные будут предоставлены.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Требования к приложению: 
     • На вход получает скан ленты с аппарата ЭКГ (12 отведений). Также прилагаются характеристики записи ЭКГ (частота дискретизации, скорость записи) 
@@ -717,52 +660,52 @@
 Все необходимые для выполнения работы данные будут предоставлены.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>• Английский язык (чтение технической литературы); 
 • Python3; 
 • OpenCV.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>• Опыт решения практических задач компьютерного зрения;  
 • Практика цифровой обработки сигналов.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Документации</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G G G</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Обнаружение дефектов рулонных материалов</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>разработка прототипа системы контроля качества рулонных материалов на основе сверточной инс.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Одним из условий получения качественной продукции, является контроль качества материалов на всех этапах производства. Некоторые материалы поставляются в виде рулонов (бумага, металлопрокат). Контроль качества подобных материалов производится человеком при размотке рулона. Применение машинного зрения позволяет автоматизировать этот процесс.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>• Изготовить демонстрационный стенд контроля.
 • Реализовать нейронную сеть, которая будет обнаруживать не типичное состояние материала.
@@ -770,7 +713,7 @@
 • Написать скрипт для обучения и проверки модели.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>• Английский язык (чтение технической литературы);
 • Python3;
@@ -778,45 +721,45 @@
 • Один из фреймворков DL.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>• Опыт работы с реальными данными.
 • Базовые навыки обучения нейронных сетей.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>G G G</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Система распознавания лиц для кошек</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>обретение навыков машинного обучения в задачах классификации изображений.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Для знакомства со сверточными нейронными сетями предлагается создать классификатор лиц собак.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>• Ознакомиться с основами сверточных ИНС;
 • Научиться работать с изображениями;
@@ -825,7 +768,7 @@
 • Научиться обучать выбранную архитектуру ИНС.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>• Английский язык (чтение технической литературы);
 • Python3;
@@ -833,7 +776,7 @@
 • Один из фреймворков DL.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>• Работа с многомерными массивами;
 • Создание и обучение сверточных нейронных сетей;
@@ -841,181 +784,14 @@
 • Использование популярных библиотек для работы ИНС.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Анализ объявлений о продаже недвижимости</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>получение навыков машинного обучения в задачах классификации и прогнозирования временных рядов.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Для определения тенденции изменения текущих цен на недвижимость необходимо собрать информацию о её стоимости за определенный срок. Затем, обучив ИНС на основе LSTM прогнозировать дальнейшую цену, необходимо выдавать ответ о целесообразности покупки в данный момент времени.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>• Ознакомиться с сетями долгой краткосрочной памяти (LSTM);
-• Написать парсер и подготовить набор данных о стоимости;
-• Научиться работать с временными рядами;
-• Научиться обучать выбранную архитектуру ИНС;
-• Реализовать код, выдающий ответ (коэффициент) о целесообразности покупки (дорого, дешево и т.д.).</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>• Английский язык (чтение технической литературы);
-• Python3;
-• Numpy;
-• Один из фреймворков DL.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>• Работа с временными рядами;
-• Создание и обучение нейронных сетей долгой краткосрочной памяти;
-• Использование GPU для ускорения вычислений;
-• Использование популярных библиотек для работы ИНС.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Разработка telegram-бота для работы с практиками и стажировками</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>разработка telegram-бота для работы с практиками.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Необходимо разработать бота на языке Python, используя библиотеку aiogram. Для хранения данных использовать СУБД на выбор и взаимодействовать с БД при помощи библиотеки SQLAlchemy. Бот должен разграничивать доступ к функционалу между пользователями (студент, сотрудник, руководитель, администратор). После реализации и тестирования описанных функций возможно добавление дополнительного функционала. В процессе работы необходимо использовать Git.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1) Регистрация пользователя по telegram id с заполнением необходимых данных (ФИО, ВУЗ, факультет, направление, кафедра, курс, группа, темы о курсовых работах, знания) (студент);
-2) Изменение данных пользователя;
-3) Подача заявки (студент);
-4) Просмотр и одобрение заявок (руководитель/администратор);
-5) Добавление/изменение/удаление задач: название, описание, количество исполнителей, материалы (сотрудник, руководитель, администратор);
-6) Выбор задачи (студент);
-7) Просмотр выбранных задач (сотрудник)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>•  Python 3.x
-•  Aiogram - фреймворк для Telegram API на языке Python;
-•  SQLAlchemy - библиотека для работы с БД на Python;
-•  SQLite/MySQL/PostgreSQL - база данных;
-•  Docker - для развертывания бота (дополнительное задание).</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Перенос знаний сложной сети на легковесную</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>повышение быстродействия ИНС методом переноса знаний.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>При внедрении ИНС очень часто приходится выбирать между показателями качества работы сети и её скоростью. Существуют разные методы повышения скорости работы сети: обрезка, квантизация, перенос знаний (knowledge distillation). В рамках данной задачи Вам предстоит опробовать подход knowledge distillation. Основная идея состоит в том, что малая сеть учится не решать практическую задачу, а аппроксимировать работу большой сети которая способна найти решение.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>• Научить базовую ИНС, или ансамбль ИНС на одном из открытых наборов данных.
-• Выбрать легковесную архитектуру.
-• Перенести знания обученной ИНС на выбранную архитектуру.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>• Английский язык (чтение технической литературы).
-• Python3.
-• Один из фреймворков DL.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>• Знакомство с технологией knowledge distillation.
-• Практика обучения ИНС.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1) https://arxiv.org/pdf/1503.02531.pdf
-2) https://github.com/dkozlov/awesome-knowledge-distillation</t>
         </is>
       </c>
     </row>

--- a/Summer_practice/files/Задачи.xlsx
+++ b/Summer_practice/files/Задачи.xlsx
@@ -690,6 +690,11 @@
           <t>G G G</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Лл Л Л</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Обнаружение дефектов рулонных материалов</t>
